--- a/VendorsInvoicePdfToExcel/TemplateVendorInvoices.xlsx
+++ b/VendorsInvoicePdfToExcel/TemplateVendorInvoices.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Designer Information</t>
   </si>
@@ -79,7 +79,7 @@
     <t>MRP</t>
   </si>
   <si>
-    <t>Rate</t>
+    <t>Taxable Amount</t>
   </si>
   <si>
     <t>Tax</t>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>IGST</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
   <si>
     <t>Amount</t>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -229,6 +232,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -238,12 +244,21 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -489,7 +504,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,21 +516,21 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="2"/>
@@ -525,21 +540,21 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -547,21 +562,21 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -569,21 +584,21 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -591,21 +606,21 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -613,21 +628,21 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -635,56 +650,65 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="3"/>
     </row>
+    <row r="9">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="I11" s="12"/>
+    </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="2"/>
@@ -692,77 +716,3035 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="16" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>22</v>
+      <c r="K14" s="20" t="s">
+        <v>29</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="L14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>22</v>
+      <c r="M14" s="20" t="s">
+        <v>29</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="N14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="15"/>
+      <c r="O14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17">
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23">
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28">
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30">
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32">
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38">
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40">
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41">
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42">
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43">
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45">
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46">
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47">
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48">
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49">
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50">
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51">
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52">
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53">
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54">
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55">
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56">
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57">
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58">
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59">
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60">
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61">
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62">
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63">
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64">
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65">
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66">
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67">
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68">
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69">
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70">
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71">
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72">
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73">
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74">
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75">
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76">
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77">
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78">
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79">
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80">
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81">
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82">
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83">
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84">
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85">
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86">
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87">
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88">
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89">
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90">
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91">
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92">
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93">
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94">
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95">
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96">
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97">
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98">
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99">
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100">
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101">
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102">
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103">
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104">
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105">
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106">
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107">
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108">
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109">
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110">
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111">
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112">
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113">
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114">
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115">
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116">
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117">
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118">
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119">
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120">
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121">
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122">
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123">
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124">
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125">
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126">
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127">
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128">
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129">
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130">
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131">
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132">
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133">
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134">
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135">
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136">
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137">
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138">
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139">
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140">
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141">
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142">
+      <c r="I142" s="12"/>
+    </row>
+    <row r="143">
+      <c r="I143" s="12"/>
+    </row>
+    <row r="144">
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145">
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146">
+      <c r="I146" s="12"/>
+    </row>
+    <row r="147">
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148">
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149">
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150">
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151">
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152">
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153">
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154">
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155">
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156">
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157">
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158">
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159">
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160">
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161">
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162">
+      <c r="I162" s="12"/>
+    </row>
+    <row r="163">
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164">
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165">
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166">
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167">
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168">
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169">
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170">
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171">
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172">
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173">
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174">
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175">
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176">
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177">
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178">
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179">
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180">
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181">
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182">
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183">
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184">
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185">
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186">
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187">
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188">
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189">
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190">
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191">
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192">
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193">
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194">
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195">
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196">
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197">
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198">
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199">
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200">
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201">
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202">
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203">
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204">
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205">
+      <c r="I205" s="12"/>
+    </row>
+    <row r="206">
+      <c r="I206" s="12"/>
+    </row>
+    <row r="207">
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208">
+      <c r="I208" s="12"/>
+    </row>
+    <row r="209">
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210">
+      <c r="I210" s="12"/>
+    </row>
+    <row r="211">
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212">
+      <c r="I212" s="12"/>
+    </row>
+    <row r="213">
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214">
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215">
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216">
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217">
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218">
+      <c r="I218" s="12"/>
+    </row>
+    <row r="219">
+      <c r="I219" s="12"/>
+    </row>
+    <row r="220">
+      <c r="I220" s="12"/>
+    </row>
+    <row r="221">
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222">
+      <c r="I222" s="12"/>
+    </row>
+    <row r="223">
+      <c r="I223" s="12"/>
+    </row>
+    <row r="224">
+      <c r="I224" s="12"/>
+    </row>
+    <row r="225">
+      <c r="I225" s="12"/>
+    </row>
+    <row r="226">
+      <c r="I226" s="12"/>
+    </row>
+    <row r="227">
+      <c r="I227" s="12"/>
+    </row>
+    <row r="228">
+      <c r="I228" s="12"/>
+    </row>
+    <row r="229">
+      <c r="I229" s="12"/>
+    </row>
+    <row r="230">
+      <c r="I230" s="12"/>
+    </row>
+    <row r="231">
+      <c r="I231" s="12"/>
+    </row>
+    <row r="232">
+      <c r="I232" s="12"/>
+    </row>
+    <row r="233">
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234">
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235">
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236">
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237">
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238">
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239">
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240">
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241">
+      <c r="I241" s="12"/>
+    </row>
+    <row r="242">
+      <c r="I242" s="12"/>
+    </row>
+    <row r="243">
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244">
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245">
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246">
+      <c r="I246" s="12"/>
+    </row>
+    <row r="247">
+      <c r="I247" s="12"/>
+    </row>
+    <row r="248">
+      <c r="I248" s="12"/>
+    </row>
+    <row r="249">
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250">
+      <c r="I250" s="12"/>
+    </row>
+    <row r="251">
+      <c r="I251" s="12"/>
+    </row>
+    <row r="252">
+      <c r="I252" s="12"/>
+    </row>
+    <row r="253">
+      <c r="I253" s="12"/>
+    </row>
+    <row r="254">
+      <c r="I254" s="12"/>
+    </row>
+    <row r="255">
+      <c r="I255" s="12"/>
+    </row>
+    <row r="256">
+      <c r="I256" s="12"/>
+    </row>
+    <row r="257">
+      <c r="I257" s="12"/>
+    </row>
+    <row r="258">
+      <c r="I258" s="12"/>
+    </row>
+    <row r="259">
+      <c r="I259" s="12"/>
+    </row>
+    <row r="260">
+      <c r="I260" s="12"/>
+    </row>
+    <row r="261">
+      <c r="I261" s="12"/>
+    </row>
+    <row r="262">
+      <c r="I262" s="12"/>
+    </row>
+    <row r="263">
+      <c r="I263" s="12"/>
+    </row>
+    <row r="264">
+      <c r="I264" s="12"/>
+    </row>
+    <row r="265">
+      <c r="I265" s="12"/>
+    </row>
+    <row r="266">
+      <c r="I266" s="12"/>
+    </row>
+    <row r="267">
+      <c r="I267" s="12"/>
+    </row>
+    <row r="268">
+      <c r="I268" s="12"/>
+    </row>
+    <row r="269">
+      <c r="I269" s="12"/>
+    </row>
+    <row r="270">
+      <c r="I270" s="12"/>
+    </row>
+    <row r="271">
+      <c r="I271" s="12"/>
+    </row>
+    <row r="272">
+      <c r="I272" s="12"/>
+    </row>
+    <row r="273">
+      <c r="I273" s="12"/>
+    </row>
+    <row r="274">
+      <c r="I274" s="12"/>
+    </row>
+    <row r="275">
+      <c r="I275" s="12"/>
+    </row>
+    <row r="276">
+      <c r="I276" s="12"/>
+    </row>
+    <row r="277">
+      <c r="I277" s="12"/>
+    </row>
+    <row r="278">
+      <c r="I278" s="12"/>
+    </row>
+    <row r="279">
+      <c r="I279" s="12"/>
+    </row>
+    <row r="280">
+      <c r="I280" s="12"/>
+    </row>
+    <row r="281">
+      <c r="I281" s="12"/>
+    </row>
+    <row r="282">
+      <c r="I282" s="12"/>
+    </row>
+    <row r="283">
+      <c r="I283" s="12"/>
+    </row>
+    <row r="284">
+      <c r="I284" s="12"/>
+    </row>
+    <row r="285">
+      <c r="I285" s="12"/>
+    </row>
+    <row r="286">
+      <c r="I286" s="12"/>
+    </row>
+    <row r="287">
+      <c r="I287" s="12"/>
+    </row>
+    <row r="288">
+      <c r="I288" s="12"/>
+    </row>
+    <row r="289">
+      <c r="I289" s="12"/>
+    </row>
+    <row r="290">
+      <c r="I290" s="12"/>
+    </row>
+    <row r="291">
+      <c r="I291" s="12"/>
+    </row>
+    <row r="292">
+      <c r="I292" s="12"/>
+    </row>
+    <row r="293">
+      <c r="I293" s="12"/>
+    </row>
+    <row r="294">
+      <c r="I294" s="12"/>
+    </row>
+    <row r="295">
+      <c r="I295" s="12"/>
+    </row>
+    <row r="296">
+      <c r="I296" s="12"/>
+    </row>
+    <row r="297">
+      <c r="I297" s="12"/>
+    </row>
+    <row r="298">
+      <c r="I298" s="12"/>
+    </row>
+    <row r="299">
+      <c r="I299" s="12"/>
+    </row>
+    <row r="300">
+      <c r="I300" s="12"/>
+    </row>
+    <row r="301">
+      <c r="I301" s="12"/>
+    </row>
+    <row r="302">
+      <c r="I302" s="12"/>
+    </row>
+    <row r="303">
+      <c r="I303" s="12"/>
+    </row>
+    <row r="304">
+      <c r="I304" s="12"/>
+    </row>
+    <row r="305">
+      <c r="I305" s="12"/>
+    </row>
+    <row r="306">
+      <c r="I306" s="12"/>
+    </row>
+    <row r="307">
+      <c r="I307" s="12"/>
+    </row>
+    <row r="308">
+      <c r="I308" s="12"/>
+    </row>
+    <row r="309">
+      <c r="I309" s="12"/>
+    </row>
+    <row r="310">
+      <c r="I310" s="12"/>
+    </row>
+    <row r="311">
+      <c r="I311" s="12"/>
+    </row>
+    <row r="312">
+      <c r="I312" s="12"/>
+    </row>
+    <row r="313">
+      <c r="I313" s="12"/>
+    </row>
+    <row r="314">
+      <c r="I314" s="12"/>
+    </row>
+    <row r="315">
+      <c r="I315" s="12"/>
+    </row>
+    <row r="316">
+      <c r="I316" s="12"/>
+    </row>
+    <row r="317">
+      <c r="I317" s="12"/>
+    </row>
+    <row r="318">
+      <c r="I318" s="12"/>
+    </row>
+    <row r="319">
+      <c r="I319" s="12"/>
+    </row>
+    <row r="320">
+      <c r="I320" s="12"/>
+    </row>
+    <row r="321">
+      <c r="I321" s="12"/>
+    </row>
+    <row r="322">
+      <c r="I322" s="12"/>
+    </row>
+    <row r="323">
+      <c r="I323" s="12"/>
+    </row>
+    <row r="324">
+      <c r="I324" s="12"/>
+    </row>
+    <row r="325">
+      <c r="I325" s="12"/>
+    </row>
+    <row r="326">
+      <c r="I326" s="12"/>
+    </row>
+    <row r="327">
+      <c r="I327" s="12"/>
+    </row>
+    <row r="328">
+      <c r="I328" s="12"/>
+    </row>
+    <row r="329">
+      <c r="I329" s="12"/>
+    </row>
+    <row r="330">
+      <c r="I330" s="12"/>
+    </row>
+    <row r="331">
+      <c r="I331" s="12"/>
+    </row>
+    <row r="332">
+      <c r="I332" s="12"/>
+    </row>
+    <row r="333">
+      <c r="I333" s="12"/>
+    </row>
+    <row r="334">
+      <c r="I334" s="12"/>
+    </row>
+    <row r="335">
+      <c r="I335" s="12"/>
+    </row>
+    <row r="336">
+      <c r="I336" s="12"/>
+    </row>
+    <row r="337">
+      <c r="I337" s="12"/>
+    </row>
+    <row r="338">
+      <c r="I338" s="12"/>
+    </row>
+    <row r="339">
+      <c r="I339" s="12"/>
+    </row>
+    <row r="340">
+      <c r="I340" s="12"/>
+    </row>
+    <row r="341">
+      <c r="I341" s="12"/>
+    </row>
+    <row r="342">
+      <c r="I342" s="12"/>
+    </row>
+    <row r="343">
+      <c r="I343" s="12"/>
+    </row>
+    <row r="344">
+      <c r="I344" s="12"/>
+    </row>
+    <row r="345">
+      <c r="I345" s="12"/>
+    </row>
+    <row r="346">
+      <c r="I346" s="12"/>
+    </row>
+    <row r="347">
+      <c r="I347" s="12"/>
+    </row>
+    <row r="348">
+      <c r="I348" s="12"/>
+    </row>
+    <row r="349">
+      <c r="I349" s="12"/>
+    </row>
+    <row r="350">
+      <c r="I350" s="12"/>
+    </row>
+    <row r="351">
+      <c r="I351" s="12"/>
+    </row>
+    <row r="352">
+      <c r="I352" s="12"/>
+    </row>
+    <row r="353">
+      <c r="I353" s="12"/>
+    </row>
+    <row r="354">
+      <c r="I354" s="12"/>
+    </row>
+    <row r="355">
+      <c r="I355" s="12"/>
+    </row>
+    <row r="356">
+      <c r="I356" s="12"/>
+    </row>
+    <row r="357">
+      <c r="I357" s="12"/>
+    </row>
+    <row r="358">
+      <c r="I358" s="12"/>
+    </row>
+    <row r="359">
+      <c r="I359" s="12"/>
+    </row>
+    <row r="360">
+      <c r="I360" s="12"/>
+    </row>
+    <row r="361">
+      <c r="I361" s="12"/>
+    </row>
+    <row r="362">
+      <c r="I362" s="12"/>
+    </row>
+    <row r="363">
+      <c r="I363" s="12"/>
+    </row>
+    <row r="364">
+      <c r="I364" s="12"/>
+    </row>
+    <row r="365">
+      <c r="I365" s="12"/>
+    </row>
+    <row r="366">
+      <c r="I366" s="12"/>
+    </row>
+    <row r="367">
+      <c r="I367" s="12"/>
+    </row>
+    <row r="368">
+      <c r="I368" s="12"/>
+    </row>
+    <row r="369">
+      <c r="I369" s="12"/>
+    </row>
+    <row r="370">
+      <c r="I370" s="12"/>
+    </row>
+    <row r="371">
+      <c r="I371" s="12"/>
+    </row>
+    <row r="372">
+      <c r="I372" s="12"/>
+    </row>
+    <row r="373">
+      <c r="I373" s="12"/>
+    </row>
+    <row r="374">
+      <c r="I374" s="12"/>
+    </row>
+    <row r="375">
+      <c r="I375" s="12"/>
+    </row>
+    <row r="376">
+      <c r="I376" s="12"/>
+    </row>
+    <row r="377">
+      <c r="I377" s="12"/>
+    </row>
+    <row r="378">
+      <c r="I378" s="12"/>
+    </row>
+    <row r="379">
+      <c r="I379" s="12"/>
+    </row>
+    <row r="380">
+      <c r="I380" s="12"/>
+    </row>
+    <row r="381">
+      <c r="I381" s="12"/>
+    </row>
+    <row r="382">
+      <c r="I382" s="12"/>
+    </row>
+    <row r="383">
+      <c r="I383" s="12"/>
+    </row>
+    <row r="384">
+      <c r="I384" s="12"/>
+    </row>
+    <row r="385">
+      <c r="I385" s="12"/>
+    </row>
+    <row r="386">
+      <c r="I386" s="12"/>
+    </row>
+    <row r="387">
+      <c r="I387" s="12"/>
+    </row>
+    <row r="388">
+      <c r="I388" s="12"/>
+    </row>
+    <row r="389">
+      <c r="I389" s="12"/>
+    </row>
+    <row r="390">
+      <c r="I390" s="12"/>
+    </row>
+    <row r="391">
+      <c r="I391" s="12"/>
+    </row>
+    <row r="392">
+      <c r="I392" s="12"/>
+    </row>
+    <row r="393">
+      <c r="I393" s="12"/>
+    </row>
+    <row r="394">
+      <c r="I394" s="12"/>
+    </row>
+    <row r="395">
+      <c r="I395" s="12"/>
+    </row>
+    <row r="396">
+      <c r="I396" s="12"/>
+    </row>
+    <row r="397">
+      <c r="I397" s="12"/>
+    </row>
+    <row r="398">
+      <c r="I398" s="12"/>
+    </row>
+    <row r="399">
+      <c r="I399" s="12"/>
+    </row>
+    <row r="400">
+      <c r="I400" s="12"/>
+    </row>
+    <row r="401">
+      <c r="I401" s="12"/>
+    </row>
+    <row r="402">
+      <c r="I402" s="12"/>
+    </row>
+    <row r="403">
+      <c r="I403" s="12"/>
+    </row>
+    <row r="404">
+      <c r="I404" s="12"/>
+    </row>
+    <row r="405">
+      <c r="I405" s="12"/>
+    </row>
+    <row r="406">
+      <c r="I406" s="12"/>
+    </row>
+    <row r="407">
+      <c r="I407" s="12"/>
+    </row>
+    <row r="408">
+      <c r="I408" s="12"/>
+    </row>
+    <row r="409">
+      <c r="I409" s="12"/>
+    </row>
+    <row r="410">
+      <c r="I410" s="12"/>
+    </row>
+    <row r="411">
+      <c r="I411" s="12"/>
+    </row>
+    <row r="412">
+      <c r="I412" s="12"/>
+    </row>
+    <row r="413">
+      <c r="I413" s="12"/>
+    </row>
+    <row r="414">
+      <c r="I414" s="12"/>
+    </row>
+    <row r="415">
+      <c r="I415" s="12"/>
+    </row>
+    <row r="416">
+      <c r="I416" s="12"/>
+    </row>
+    <row r="417">
+      <c r="I417" s="12"/>
+    </row>
+    <row r="418">
+      <c r="I418" s="12"/>
+    </row>
+    <row r="419">
+      <c r="I419" s="12"/>
+    </row>
+    <row r="420">
+      <c r="I420" s="12"/>
+    </row>
+    <row r="421">
+      <c r="I421" s="12"/>
+    </row>
+    <row r="422">
+      <c r="I422" s="12"/>
+    </row>
+    <row r="423">
+      <c r="I423" s="12"/>
+    </row>
+    <row r="424">
+      <c r="I424" s="12"/>
+    </row>
+    <row r="425">
+      <c r="I425" s="12"/>
+    </row>
+    <row r="426">
+      <c r="I426" s="12"/>
+    </row>
+    <row r="427">
+      <c r="I427" s="12"/>
+    </row>
+    <row r="428">
+      <c r="I428" s="12"/>
+    </row>
+    <row r="429">
+      <c r="I429" s="12"/>
+    </row>
+    <row r="430">
+      <c r="I430" s="12"/>
+    </row>
+    <row r="431">
+      <c r="I431" s="12"/>
+    </row>
+    <row r="432">
+      <c r="I432" s="12"/>
+    </row>
+    <row r="433">
+      <c r="I433" s="12"/>
+    </row>
+    <row r="434">
+      <c r="I434" s="12"/>
+    </row>
+    <row r="435">
+      <c r="I435" s="12"/>
+    </row>
+    <row r="436">
+      <c r="I436" s="12"/>
+    </row>
+    <row r="437">
+      <c r="I437" s="12"/>
+    </row>
+    <row r="438">
+      <c r="I438" s="12"/>
+    </row>
+    <row r="439">
+      <c r="I439" s="12"/>
+    </row>
+    <row r="440">
+      <c r="I440" s="12"/>
+    </row>
+    <row r="441">
+      <c r="I441" s="12"/>
+    </row>
+    <row r="442">
+      <c r="I442" s="12"/>
+    </row>
+    <row r="443">
+      <c r="I443" s="12"/>
+    </row>
+    <row r="444">
+      <c r="I444" s="12"/>
+    </row>
+    <row r="445">
+      <c r="I445" s="12"/>
+    </row>
+    <row r="446">
+      <c r="I446" s="12"/>
+    </row>
+    <row r="447">
+      <c r="I447" s="12"/>
+    </row>
+    <row r="448">
+      <c r="I448" s="12"/>
+    </row>
+    <row r="449">
+      <c r="I449" s="12"/>
+    </row>
+    <row r="450">
+      <c r="I450" s="12"/>
+    </row>
+    <row r="451">
+      <c r="I451" s="12"/>
+    </row>
+    <row r="452">
+      <c r="I452" s="12"/>
+    </row>
+    <row r="453">
+      <c r="I453" s="12"/>
+    </row>
+    <row r="454">
+      <c r="I454" s="12"/>
+    </row>
+    <row r="455">
+      <c r="I455" s="12"/>
+    </row>
+    <row r="456">
+      <c r="I456" s="12"/>
+    </row>
+    <row r="457">
+      <c r="I457" s="12"/>
+    </row>
+    <row r="458">
+      <c r="I458" s="12"/>
+    </row>
+    <row r="459">
+      <c r="I459" s="12"/>
+    </row>
+    <row r="460">
+      <c r="I460" s="12"/>
+    </row>
+    <row r="461">
+      <c r="I461" s="12"/>
+    </row>
+    <row r="462">
+      <c r="I462" s="12"/>
+    </row>
+    <row r="463">
+      <c r="I463" s="12"/>
+    </row>
+    <row r="464">
+      <c r="I464" s="12"/>
+    </row>
+    <row r="465">
+      <c r="I465" s="12"/>
+    </row>
+    <row r="466">
+      <c r="I466" s="12"/>
+    </row>
+    <row r="467">
+      <c r="I467" s="12"/>
+    </row>
+    <row r="468">
+      <c r="I468" s="12"/>
+    </row>
+    <row r="469">
+      <c r="I469" s="12"/>
+    </row>
+    <row r="470">
+      <c r="I470" s="12"/>
+    </row>
+    <row r="471">
+      <c r="I471" s="12"/>
+    </row>
+    <row r="472">
+      <c r="I472" s="12"/>
+    </row>
+    <row r="473">
+      <c r="I473" s="12"/>
+    </row>
+    <row r="474">
+      <c r="I474" s="12"/>
+    </row>
+    <row r="475">
+      <c r="I475" s="12"/>
+    </row>
+    <row r="476">
+      <c r="I476" s="12"/>
+    </row>
+    <row r="477">
+      <c r="I477" s="12"/>
+    </row>
+    <row r="478">
+      <c r="I478" s="12"/>
+    </row>
+    <row r="479">
+      <c r="I479" s="12"/>
+    </row>
+    <row r="480">
+      <c r="I480" s="12"/>
+    </row>
+    <row r="481">
+      <c r="I481" s="12"/>
+    </row>
+    <row r="482">
+      <c r="I482" s="12"/>
+    </row>
+    <row r="483">
+      <c r="I483" s="12"/>
+    </row>
+    <row r="484">
+      <c r="I484" s="12"/>
+    </row>
+    <row r="485">
+      <c r="I485" s="12"/>
+    </row>
+    <row r="486">
+      <c r="I486" s="12"/>
+    </row>
+    <row r="487">
+      <c r="I487" s="12"/>
+    </row>
+    <row r="488">
+      <c r="I488" s="12"/>
+    </row>
+    <row r="489">
+      <c r="I489" s="12"/>
+    </row>
+    <row r="490">
+      <c r="I490" s="12"/>
+    </row>
+    <row r="491">
+      <c r="I491" s="12"/>
+    </row>
+    <row r="492">
+      <c r="I492" s="12"/>
+    </row>
+    <row r="493">
+      <c r="I493" s="12"/>
+    </row>
+    <row r="494">
+      <c r="I494" s="12"/>
+    </row>
+    <row r="495">
+      <c r="I495" s="12"/>
+    </row>
+    <row r="496">
+      <c r="I496" s="12"/>
+    </row>
+    <row r="497">
+      <c r="I497" s="12"/>
+    </row>
+    <row r="498">
+      <c r="I498" s="12"/>
+    </row>
+    <row r="499">
+      <c r="I499" s="12"/>
+    </row>
+    <row r="500">
+      <c r="I500" s="12"/>
+    </row>
+    <row r="501">
+      <c r="I501" s="12"/>
+    </row>
+    <row r="502">
+      <c r="I502" s="12"/>
+    </row>
+    <row r="503">
+      <c r="I503" s="12"/>
+    </row>
+    <row r="504">
+      <c r="I504" s="12"/>
+    </row>
+    <row r="505">
+      <c r="I505" s="12"/>
+    </row>
+    <row r="506">
+      <c r="I506" s="12"/>
+    </row>
+    <row r="507">
+      <c r="I507" s="12"/>
+    </row>
+    <row r="508">
+      <c r="I508" s="12"/>
+    </row>
+    <row r="509">
+      <c r="I509" s="12"/>
+    </row>
+    <row r="510">
+      <c r="I510" s="12"/>
+    </row>
+    <row r="511">
+      <c r="I511" s="12"/>
+    </row>
+    <row r="512">
+      <c r="I512" s="12"/>
+    </row>
+    <row r="513">
+      <c r="I513" s="12"/>
+    </row>
+    <row r="514">
+      <c r="I514" s="12"/>
+    </row>
+    <row r="515">
+      <c r="I515" s="12"/>
+    </row>
+    <row r="516">
+      <c r="I516" s="12"/>
+    </row>
+    <row r="517">
+      <c r="I517" s="12"/>
+    </row>
+    <row r="518">
+      <c r="I518" s="12"/>
+    </row>
+    <row r="519">
+      <c r="I519" s="12"/>
+    </row>
+    <row r="520">
+      <c r="I520" s="12"/>
+    </row>
+    <row r="521">
+      <c r="I521" s="12"/>
+    </row>
+    <row r="522">
+      <c r="I522" s="12"/>
+    </row>
+    <row r="523">
+      <c r="I523" s="12"/>
+    </row>
+    <row r="524">
+      <c r="I524" s="12"/>
+    </row>
+    <row r="525">
+      <c r="I525" s="12"/>
+    </row>
+    <row r="526">
+      <c r="I526" s="12"/>
+    </row>
+    <row r="527">
+      <c r="I527" s="12"/>
+    </row>
+    <row r="528">
+      <c r="I528" s="12"/>
+    </row>
+    <row r="529">
+      <c r="I529" s="12"/>
+    </row>
+    <row r="530">
+      <c r="I530" s="12"/>
+    </row>
+    <row r="531">
+      <c r="I531" s="12"/>
+    </row>
+    <row r="532">
+      <c r="I532" s="12"/>
+    </row>
+    <row r="533">
+      <c r="I533" s="12"/>
+    </row>
+    <row r="534">
+      <c r="I534" s="12"/>
+    </row>
+    <row r="535">
+      <c r="I535" s="12"/>
+    </row>
+    <row r="536">
+      <c r="I536" s="12"/>
+    </row>
+    <row r="537">
+      <c r="I537" s="12"/>
+    </row>
+    <row r="538">
+      <c r="I538" s="12"/>
+    </row>
+    <row r="539">
+      <c r="I539" s="12"/>
+    </row>
+    <row r="540">
+      <c r="I540" s="12"/>
+    </row>
+    <row r="541">
+      <c r="I541" s="12"/>
+    </row>
+    <row r="542">
+      <c r="I542" s="12"/>
+    </row>
+    <row r="543">
+      <c r="I543" s="12"/>
+    </row>
+    <row r="544">
+      <c r="I544" s="12"/>
+    </row>
+    <row r="545">
+      <c r="I545" s="12"/>
+    </row>
+    <row r="546">
+      <c r="I546" s="12"/>
+    </row>
+    <row r="547">
+      <c r="I547" s="12"/>
+    </row>
+    <row r="548">
+      <c r="I548" s="12"/>
+    </row>
+    <row r="549">
+      <c r="I549" s="12"/>
+    </row>
+    <row r="550">
+      <c r="I550" s="12"/>
+    </row>
+    <row r="551">
+      <c r="I551" s="12"/>
+    </row>
+    <row r="552">
+      <c r="I552" s="12"/>
+    </row>
+    <row r="553">
+      <c r="I553" s="12"/>
+    </row>
+    <row r="554">
+      <c r="I554" s="12"/>
+    </row>
+    <row r="555">
+      <c r="I555" s="12"/>
+    </row>
+    <row r="556">
+      <c r="I556" s="12"/>
+    </row>
+    <row r="557">
+      <c r="I557" s="12"/>
+    </row>
+    <row r="558">
+      <c r="I558" s="12"/>
+    </row>
+    <row r="559">
+      <c r="I559" s="12"/>
+    </row>
+    <row r="560">
+      <c r="I560" s="12"/>
+    </row>
+    <row r="561">
+      <c r="I561" s="12"/>
+    </row>
+    <row r="562">
+      <c r="I562" s="12"/>
+    </row>
+    <row r="563">
+      <c r="I563" s="12"/>
+    </row>
+    <row r="564">
+      <c r="I564" s="12"/>
+    </row>
+    <row r="565">
+      <c r="I565" s="12"/>
+    </row>
+    <row r="566">
+      <c r="I566" s="12"/>
+    </row>
+    <row r="567">
+      <c r="I567" s="12"/>
+    </row>
+    <row r="568">
+      <c r="I568" s="12"/>
+    </row>
+    <row r="569">
+      <c r="I569" s="12"/>
+    </row>
+    <row r="570">
+      <c r="I570" s="12"/>
+    </row>
+    <row r="571">
+      <c r="I571" s="12"/>
+    </row>
+    <row r="572">
+      <c r="I572" s="12"/>
+    </row>
+    <row r="573">
+      <c r="I573" s="12"/>
+    </row>
+    <row r="574">
+      <c r="I574" s="12"/>
+    </row>
+    <row r="575">
+      <c r="I575" s="12"/>
+    </row>
+    <row r="576">
+      <c r="I576" s="12"/>
+    </row>
+    <row r="577">
+      <c r="I577" s="12"/>
+    </row>
+    <row r="578">
+      <c r="I578" s="12"/>
+    </row>
+    <row r="579">
+      <c r="I579" s="12"/>
+    </row>
+    <row r="580">
+      <c r="I580" s="12"/>
+    </row>
+    <row r="581">
+      <c r="I581" s="12"/>
+    </row>
+    <row r="582">
+      <c r="I582" s="12"/>
+    </row>
+    <row r="583">
+      <c r="I583" s="12"/>
+    </row>
+    <row r="584">
+      <c r="I584" s="12"/>
+    </row>
+    <row r="585">
+      <c r="I585" s="12"/>
+    </row>
+    <row r="586">
+      <c r="I586" s="12"/>
+    </row>
+    <row r="587">
+      <c r="I587" s="12"/>
+    </row>
+    <row r="588">
+      <c r="I588" s="12"/>
+    </row>
+    <row r="589">
+      <c r="I589" s="12"/>
+    </row>
+    <row r="590">
+      <c r="I590" s="12"/>
+    </row>
+    <row r="591">
+      <c r="I591" s="12"/>
+    </row>
+    <row r="592">
+      <c r="I592" s="12"/>
+    </row>
+    <row r="593">
+      <c r="I593" s="12"/>
+    </row>
+    <row r="594">
+      <c r="I594" s="12"/>
+    </row>
+    <row r="595">
+      <c r="I595" s="12"/>
+    </row>
+    <row r="596">
+      <c r="I596" s="12"/>
+    </row>
+    <row r="597">
+      <c r="I597" s="12"/>
+    </row>
+    <row r="598">
+      <c r="I598" s="12"/>
+    </row>
+    <row r="599">
+      <c r="I599" s="12"/>
+    </row>
+    <row r="600">
+      <c r="I600" s="12"/>
+    </row>
+    <row r="601">
+      <c r="I601" s="12"/>
+    </row>
+    <row r="602">
+      <c r="I602" s="12"/>
+    </row>
+    <row r="603">
+      <c r="I603" s="12"/>
+    </row>
+    <row r="604">
+      <c r="I604" s="12"/>
+    </row>
+    <row r="605">
+      <c r="I605" s="12"/>
+    </row>
+    <row r="606">
+      <c r="I606" s="12"/>
+    </row>
+    <row r="607">
+      <c r="I607" s="12"/>
+    </row>
+    <row r="608">
+      <c r="I608" s="12"/>
+    </row>
+    <row r="609">
+      <c r="I609" s="12"/>
+    </row>
+    <row r="610">
+      <c r="I610" s="12"/>
+    </row>
+    <row r="611">
+      <c r="I611" s="12"/>
+    </row>
+    <row r="612">
+      <c r="I612" s="12"/>
+    </row>
+    <row r="613">
+      <c r="I613" s="12"/>
+    </row>
+    <row r="614">
+      <c r="I614" s="12"/>
+    </row>
+    <row r="615">
+      <c r="I615" s="12"/>
+    </row>
+    <row r="616">
+      <c r="I616" s="12"/>
+    </row>
+    <row r="617">
+      <c r="I617" s="12"/>
+    </row>
+    <row r="618">
+      <c r="I618" s="12"/>
+    </row>
+    <row r="619">
+      <c r="I619" s="12"/>
+    </row>
+    <row r="620">
+      <c r="I620" s="12"/>
+    </row>
+    <row r="621">
+      <c r="I621" s="12"/>
+    </row>
+    <row r="622">
+      <c r="I622" s="12"/>
+    </row>
+    <row r="623">
+      <c r="I623" s="12"/>
+    </row>
+    <row r="624">
+      <c r="I624" s="12"/>
+    </row>
+    <row r="625">
+      <c r="I625" s="12"/>
+    </row>
+    <row r="626">
+      <c r="I626" s="12"/>
+    </row>
+    <row r="627">
+      <c r="I627" s="12"/>
+    </row>
+    <row r="628">
+      <c r="I628" s="12"/>
+    </row>
+    <row r="629">
+      <c r="I629" s="12"/>
+    </row>
+    <row r="630">
+      <c r="I630" s="12"/>
+    </row>
+    <row r="631">
+      <c r="I631" s="12"/>
+    </row>
+    <row r="632">
+      <c r="I632" s="12"/>
+    </row>
+    <row r="633">
+      <c r="I633" s="12"/>
+    </row>
+    <row r="634">
+      <c r="I634" s="12"/>
+    </row>
+    <row r="635">
+      <c r="I635" s="12"/>
+    </row>
+    <row r="636">
+      <c r="I636" s="12"/>
+    </row>
+    <row r="637">
+      <c r="I637" s="12"/>
+    </row>
+    <row r="638">
+      <c r="I638" s="12"/>
+    </row>
+    <row r="639">
+      <c r="I639" s="12"/>
+    </row>
+    <row r="640">
+      <c r="I640" s="12"/>
+    </row>
+    <row r="641">
+      <c r="I641" s="12"/>
+    </row>
+    <row r="642">
+      <c r="I642" s="12"/>
+    </row>
+    <row r="643">
+      <c r="I643" s="12"/>
+    </row>
+    <row r="644">
+      <c r="I644" s="12"/>
+    </row>
+    <row r="645">
+      <c r="I645" s="12"/>
+    </row>
+    <row r="646">
+      <c r="I646" s="12"/>
+    </row>
+    <row r="647">
+      <c r="I647" s="12"/>
+    </row>
+    <row r="648">
+      <c r="I648" s="12"/>
+    </row>
+    <row r="649">
+      <c r="I649" s="12"/>
+    </row>
+    <row r="650">
+      <c r="I650" s="12"/>
+    </row>
+    <row r="651">
+      <c r="I651" s="12"/>
+    </row>
+    <row r="652">
+      <c r="I652" s="12"/>
+    </row>
+    <row r="653">
+      <c r="I653" s="12"/>
+    </row>
+    <row r="654">
+      <c r="I654" s="12"/>
+    </row>
+    <row r="655">
+      <c r="I655" s="12"/>
+    </row>
+    <row r="656">
+      <c r="I656" s="12"/>
+    </row>
+    <row r="657">
+      <c r="I657" s="12"/>
+    </row>
+    <row r="658">
+      <c r="I658" s="12"/>
+    </row>
+    <row r="659">
+      <c r="I659" s="12"/>
+    </row>
+    <row r="660">
+      <c r="I660" s="12"/>
+    </row>
+    <row r="661">
+      <c r="I661" s="12"/>
+    </row>
+    <row r="662">
+      <c r="I662" s="12"/>
+    </row>
+    <row r="663">
+      <c r="I663" s="12"/>
+    </row>
+    <row r="664">
+      <c r="I664" s="12"/>
+    </row>
+    <row r="665">
+      <c r="I665" s="12"/>
+    </row>
+    <row r="666">
+      <c r="I666" s="12"/>
+    </row>
+    <row r="667">
+      <c r="I667" s="12"/>
+    </row>
+    <row r="668">
+      <c r="I668" s="12"/>
+    </row>
+    <row r="669">
+      <c r="I669" s="12"/>
+    </row>
+    <row r="670">
+      <c r="I670" s="12"/>
+    </row>
+    <row r="671">
+      <c r="I671" s="12"/>
+    </row>
+    <row r="672">
+      <c r="I672" s="12"/>
+    </row>
+    <row r="673">
+      <c r="I673" s="12"/>
+    </row>
+    <row r="674">
+      <c r="I674" s="12"/>
+    </row>
+    <row r="675">
+      <c r="I675" s="12"/>
+    </row>
+    <row r="676">
+      <c r="I676" s="12"/>
+    </row>
+    <row r="677">
+      <c r="I677" s="12"/>
+    </row>
+    <row r="678">
+      <c r="I678" s="12"/>
+    </row>
+    <row r="679">
+      <c r="I679" s="12"/>
+    </row>
+    <row r="680">
+      <c r="I680" s="12"/>
+    </row>
+    <row r="681">
+      <c r="I681" s="12"/>
+    </row>
+    <row r="682">
+      <c r="I682" s="12"/>
+    </row>
+    <row r="683">
+      <c r="I683" s="12"/>
+    </row>
+    <row r="684">
+      <c r="I684" s="12"/>
+    </row>
+    <row r="685">
+      <c r="I685" s="12"/>
+    </row>
+    <row r="686">
+      <c r="I686" s="12"/>
+    </row>
+    <row r="687">
+      <c r="I687" s="12"/>
+    </row>
+    <row r="688">
+      <c r="I688" s="12"/>
+    </row>
+    <row r="689">
+      <c r="I689" s="12"/>
+    </row>
+    <row r="690">
+      <c r="I690" s="12"/>
+    </row>
+    <row r="691">
+      <c r="I691" s="12"/>
+    </row>
+    <row r="692">
+      <c r="I692" s="12"/>
+    </row>
+    <row r="693">
+      <c r="I693" s="12"/>
+    </row>
+    <row r="694">
+      <c r="I694" s="12"/>
+    </row>
+    <row r="695">
+      <c r="I695" s="12"/>
+    </row>
+    <row r="696">
+      <c r="I696" s="12"/>
+    </row>
+    <row r="697">
+      <c r="I697" s="12"/>
+    </row>
+    <row r="698">
+      <c r="I698" s="12"/>
+    </row>
+    <row r="699">
+      <c r="I699" s="12"/>
+    </row>
+    <row r="700">
+      <c r="I700" s="12"/>
+    </row>
+    <row r="701">
+      <c r="I701" s="12"/>
+    </row>
+    <row r="702">
+      <c r="I702" s="12"/>
+    </row>
+    <row r="703">
+      <c r="I703" s="12"/>
+    </row>
+    <row r="704">
+      <c r="I704" s="12"/>
+    </row>
+    <row r="705">
+      <c r="I705" s="12"/>
+    </row>
+    <row r="706">
+      <c r="I706" s="12"/>
+    </row>
+    <row r="707">
+      <c r="I707" s="12"/>
+    </row>
+    <row r="708">
+      <c r="I708" s="12"/>
+    </row>
+    <row r="709">
+      <c r="I709" s="12"/>
+    </row>
+    <row r="710">
+      <c r="I710" s="12"/>
+    </row>
+    <row r="711">
+      <c r="I711" s="12"/>
+    </row>
+    <row r="712">
+      <c r="I712" s="12"/>
+    </row>
+    <row r="713">
+      <c r="I713" s="12"/>
+    </row>
+    <row r="714">
+      <c r="I714" s="12"/>
+    </row>
+    <row r="715">
+      <c r="I715" s="12"/>
+    </row>
+    <row r="716">
+      <c r="I716" s="12"/>
+    </row>
+    <row r="717">
+      <c r="I717" s="12"/>
+    </row>
+    <row r="718">
+      <c r="I718" s="12"/>
+    </row>
+    <row r="719">
+      <c r="I719" s="12"/>
+    </row>
+    <row r="720">
+      <c r="I720" s="12"/>
+    </row>
+    <row r="721">
+      <c r="I721" s="12"/>
+    </row>
+    <row r="722">
+      <c r="I722" s="12"/>
+    </row>
+    <row r="723">
+      <c r="I723" s="12"/>
+    </row>
+    <row r="724">
+      <c r="I724" s="12"/>
+    </row>
+    <row r="725">
+      <c r="I725" s="12"/>
+    </row>
+    <row r="726">
+      <c r="I726" s="12"/>
+    </row>
+    <row r="727">
+      <c r="I727" s="12"/>
+    </row>
+    <row r="728">
+      <c r="I728" s="12"/>
+    </row>
+    <row r="729">
+      <c r="I729" s="12"/>
+    </row>
+    <row r="730">
+      <c r="I730" s="12"/>
+    </row>
+    <row r="731">
+      <c r="I731" s="12"/>
+    </row>
+    <row r="732">
+      <c r="I732" s="12"/>
+    </row>
+    <row r="733">
+      <c r="I733" s="12"/>
+    </row>
+    <row r="734">
+      <c r="I734" s="12"/>
+    </row>
+    <row r="735">
+      <c r="I735" s="12"/>
+    </row>
+    <row r="736">
+      <c r="I736" s="12"/>
+    </row>
+    <row r="737">
+      <c r="I737" s="12"/>
+    </row>
+    <row r="738">
+      <c r="I738" s="12"/>
+    </row>
+    <row r="739">
+      <c r="I739" s="12"/>
+    </row>
+    <row r="740">
+      <c r="I740" s="12"/>
+    </row>
+    <row r="741">
+      <c r="I741" s="12"/>
+    </row>
+    <row r="742">
+      <c r="I742" s="12"/>
+    </row>
+    <row r="743">
+      <c r="I743" s="12"/>
+    </row>
+    <row r="744">
+      <c r="I744" s="12"/>
+    </row>
+    <row r="745">
+      <c r="I745" s="12"/>
+    </row>
+    <row r="746">
+      <c r="I746" s="12"/>
+    </row>
+    <row r="747">
+      <c r="I747" s="12"/>
+    </row>
+    <row r="748">
+      <c r="I748" s="12"/>
+    </row>
+    <row r="749">
+      <c r="I749" s="12"/>
+    </row>
+    <row r="750">
+      <c r="I750" s="12"/>
+    </row>
+    <row r="751">
+      <c r="I751" s="12"/>
+    </row>
+    <row r="752">
+      <c r="I752" s="12"/>
+    </row>
+    <row r="753">
+      <c r="I753" s="12"/>
+    </row>
+    <row r="754">
+      <c r="I754" s="12"/>
+    </row>
+    <row r="755">
+      <c r="I755" s="12"/>
+    </row>
+    <row r="756">
+      <c r="I756" s="12"/>
+    </row>
+    <row r="757">
+      <c r="I757" s="12"/>
+    </row>
+    <row r="758">
+      <c r="I758" s="12"/>
+    </row>
+    <row r="759">
+      <c r="I759" s="12"/>
+    </row>
+    <row r="760">
+      <c r="I760" s="12"/>
+    </row>
+    <row r="761">
+      <c r="I761" s="12"/>
+    </row>
+    <row r="762">
+      <c r="I762" s="12"/>
+    </row>
+    <row r="763">
+      <c r="I763" s="12"/>
+    </row>
+    <row r="764">
+      <c r="I764" s="12"/>
+    </row>
+    <row r="765">
+      <c r="I765" s="12"/>
+    </row>
+    <row r="766">
+      <c r="I766" s="12"/>
+    </row>
+    <row r="767">
+      <c r="I767" s="12"/>
+    </row>
+    <row r="768">
+      <c r="I768" s="12"/>
+    </row>
+    <row r="769">
+      <c r="I769" s="12"/>
+    </row>
+    <row r="770">
+      <c r="I770" s="12"/>
+    </row>
+    <row r="771">
+      <c r="I771" s="12"/>
+    </row>
+    <row r="772">
+      <c r="I772" s="12"/>
+    </row>
+    <row r="773">
+      <c r="I773" s="12"/>
+    </row>
+    <row r="774">
+      <c r="I774" s="12"/>
+    </row>
+    <row r="775">
+      <c r="I775" s="12"/>
+    </row>
+    <row r="776">
+      <c r="I776" s="12"/>
+    </row>
+    <row r="777">
+      <c r="I777" s="12"/>
+    </row>
+    <row r="778">
+      <c r="I778" s="12"/>
+    </row>
+    <row r="779">
+      <c r="I779" s="12"/>
+    </row>
+    <row r="780">
+      <c r="I780" s="12"/>
+    </row>
+    <row r="781">
+      <c r="I781" s="12"/>
+    </row>
+    <row r="782">
+      <c r="I782" s="12"/>
+    </row>
+    <row r="783">
+      <c r="I783" s="12"/>
+    </row>
+    <row r="784">
+      <c r="I784" s="12"/>
+    </row>
+    <row r="785">
+      <c r="I785" s="12"/>
+    </row>
+    <row r="786">
+      <c r="I786" s="12"/>
+    </row>
+    <row r="787">
+      <c r="I787" s="12"/>
+    </row>
+    <row r="788">
+      <c r="I788" s="12"/>
+    </row>
+    <row r="789">
+      <c r="I789" s="12"/>
+    </row>
+    <row r="790">
+      <c r="I790" s="12"/>
+    </row>
+    <row r="791">
+      <c r="I791" s="12"/>
+    </row>
+    <row r="792">
+      <c r="I792" s="12"/>
+    </row>
+    <row r="793">
+      <c r="I793" s="12"/>
+    </row>
+    <row r="794">
+      <c r="I794" s="12"/>
+    </row>
+    <row r="795">
+      <c r="I795" s="12"/>
+    </row>
+    <row r="796">
+      <c r="I796" s="12"/>
+    </row>
+    <row r="797">
+      <c r="I797" s="12"/>
+    </row>
+    <row r="798">
+      <c r="I798" s="12"/>
+    </row>
+    <row r="799">
+      <c r="I799" s="12"/>
+    </row>
+    <row r="800">
+      <c r="I800" s="12"/>
+    </row>
+    <row r="801">
+      <c r="I801" s="12"/>
+    </row>
+    <row r="802">
+      <c r="I802" s="12"/>
+    </row>
+    <row r="803">
+      <c r="I803" s="12"/>
+    </row>
+    <row r="804">
+      <c r="I804" s="12"/>
+    </row>
+    <row r="805">
+      <c r="I805" s="12"/>
+    </row>
+    <row r="806">
+      <c r="I806" s="12"/>
+    </row>
+    <row r="807">
+      <c r="I807" s="12"/>
+    </row>
+    <row r="808">
+      <c r="I808" s="12"/>
+    </row>
+    <row r="809">
+      <c r="I809" s="12"/>
+    </row>
+    <row r="810">
+      <c r="I810" s="12"/>
+    </row>
+    <row r="811">
+      <c r="I811" s="12"/>
+    </row>
+    <row r="812">
+      <c r="I812" s="12"/>
+    </row>
+    <row r="813">
+      <c r="I813" s="12"/>
+    </row>
+    <row r="814">
+      <c r="I814" s="12"/>
+    </row>
+    <row r="815">
+      <c r="I815" s="12"/>
+    </row>
+    <row r="816">
+      <c r="I816" s="12"/>
+    </row>
+    <row r="817">
+      <c r="I817" s="12"/>
+    </row>
+    <row r="818">
+      <c r="I818" s="12"/>
+    </row>
+    <row r="819">
+      <c r="I819" s="12"/>
+    </row>
+    <row r="820">
+      <c r="I820" s="12"/>
+    </row>
+    <row r="821">
+      <c r="I821" s="12"/>
+    </row>
+    <row r="822">
+      <c r="I822" s="12"/>
+    </row>
+    <row r="823">
+      <c r="I823" s="12"/>
+    </row>
+    <row r="824">
+      <c r="I824" s="12"/>
+    </row>
+    <row r="825">
+      <c r="I825" s="12"/>
+    </row>
+    <row r="826">
+      <c r="I826" s="12"/>
+    </row>
+    <row r="827">
+      <c r="I827" s="12"/>
+    </row>
+    <row r="828">
+      <c r="I828" s="12"/>
+    </row>
+    <row r="829">
+      <c r="I829" s="12"/>
+    </row>
+    <row r="830">
+      <c r="I830" s="12"/>
+    </row>
+    <row r="831">
+      <c r="I831" s="12"/>
+    </row>
+    <row r="832">
+      <c r="I832" s="12"/>
+    </row>
+    <row r="833">
+      <c r="I833" s="12"/>
+    </row>
+    <row r="834">
+      <c r="I834" s="12"/>
+    </row>
+    <row r="835">
+      <c r="I835" s="12"/>
+    </row>
+    <row r="836">
+      <c r="I836" s="12"/>
+    </row>
+    <row r="837">
+      <c r="I837" s="12"/>
+    </row>
+    <row r="838">
+      <c r="I838" s="12"/>
+    </row>
+    <row r="839">
+      <c r="I839" s="12"/>
+    </row>
+    <row r="840">
+      <c r="I840" s="12"/>
+    </row>
+    <row r="841">
+      <c r="I841" s="12"/>
+    </row>
+    <row r="842">
+      <c r="I842" s="12"/>
+    </row>
+    <row r="843">
+      <c r="I843" s="12"/>
+    </row>
+    <row r="844">
+      <c r="I844" s="12"/>
+    </row>
+    <row r="845">
+      <c r="I845" s="12"/>
+    </row>
+    <row r="846">
+      <c r="I846" s="12"/>
+    </row>
+    <row r="847">
+      <c r="I847" s="12"/>
+    </row>
+    <row r="848">
+      <c r="I848" s="12"/>
+    </row>
+    <row r="849">
+      <c r="I849" s="12"/>
+    </row>
+    <row r="850">
+      <c r="I850" s="12"/>
+    </row>
+    <row r="851">
+      <c r="I851" s="12"/>
+    </row>
+    <row r="852">
+      <c r="I852" s="12"/>
+    </row>
+    <row r="853">
+      <c r="I853" s="12"/>
+    </row>
+    <row r="854">
+      <c r="I854" s="12"/>
+    </row>
+    <row r="855">
+      <c r="I855" s="12"/>
+    </row>
+    <row r="856">
+      <c r="I856" s="12"/>
+    </row>
+    <row r="857">
+      <c r="I857" s="12"/>
+    </row>
+    <row r="858">
+      <c r="I858" s="12"/>
+    </row>
+    <row r="859">
+      <c r="I859" s="12"/>
+    </row>
+    <row r="860">
+      <c r="I860" s="12"/>
+    </row>
+    <row r="861">
+      <c r="I861" s="12"/>
+    </row>
+    <row r="862">
+      <c r="I862" s="12"/>
+    </row>
+    <row r="863">
+      <c r="I863" s="12"/>
+    </row>
+    <row r="864">
+      <c r="I864" s="12"/>
+    </row>
+    <row r="865">
+      <c r="I865" s="12"/>
+    </row>
+    <row r="866">
+      <c r="I866" s="12"/>
+    </row>
+    <row r="867">
+      <c r="I867" s="12"/>
+    </row>
+    <row r="868">
+      <c r="I868" s="12"/>
+    </row>
+    <row r="869">
+      <c r="I869" s="12"/>
+    </row>
+    <row r="870">
+      <c r="I870" s="12"/>
+    </row>
+    <row r="871">
+      <c r="I871" s="12"/>
+    </row>
+    <row r="872">
+      <c r="I872" s="12"/>
+    </row>
+    <row r="873">
+      <c r="I873" s="12"/>
+    </row>
+    <row r="874">
+      <c r="I874" s="12"/>
+    </row>
+    <row r="875">
+      <c r="I875" s="12"/>
+    </row>
+    <row r="876">
+      <c r="I876" s="12"/>
+    </row>
+    <row r="877">
+      <c r="I877" s="12"/>
+    </row>
+    <row r="878">
+      <c r="I878" s="12"/>
+    </row>
+    <row r="879">
+      <c r="I879" s="12"/>
+    </row>
+    <row r="880">
+      <c r="I880" s="12"/>
+    </row>
+    <row r="881">
+      <c r="I881" s="12"/>
+    </row>
+    <row r="882">
+      <c r="I882" s="12"/>
+    </row>
+    <row r="883">
+      <c r="I883" s="12"/>
+    </row>
+    <row r="884">
+      <c r="I884" s="12"/>
+    </row>
+    <row r="885">
+      <c r="I885" s="12"/>
+    </row>
+    <row r="886">
+      <c r="I886" s="12"/>
+    </row>
+    <row r="887">
+      <c r="I887" s="12"/>
+    </row>
+    <row r="888">
+      <c r="I888" s="12"/>
+    </row>
+    <row r="889">
+      <c r="I889" s="12"/>
+    </row>
+    <row r="890">
+      <c r="I890" s="12"/>
+    </row>
+    <row r="891">
+      <c r="I891" s="12"/>
+    </row>
+    <row r="892">
+      <c r="I892" s="12"/>
+    </row>
+    <row r="893">
+      <c r="I893" s="12"/>
+    </row>
+    <row r="894">
+      <c r="I894" s="12"/>
+    </row>
+    <row r="895">
+      <c r="I895" s="12"/>
+    </row>
+    <row r="896">
+      <c r="I896" s="12"/>
+    </row>
+    <row r="897">
+      <c r="I897" s="12"/>
+    </row>
+    <row r="898">
+      <c r="I898" s="12"/>
+    </row>
+    <row r="899">
+      <c r="I899" s="12"/>
+    </row>
+    <row r="900">
+      <c r="I900" s="12"/>
+    </row>
+    <row r="901">
+      <c r="I901" s="12"/>
+    </row>
+    <row r="902">
+      <c r="I902" s="12"/>
+    </row>
+    <row r="903">
+      <c r="I903" s="12"/>
+    </row>
+    <row r="904">
+      <c r="I904" s="12"/>
+    </row>
+    <row r="905">
+      <c r="I905" s="12"/>
+    </row>
+    <row r="906">
+      <c r="I906" s="12"/>
+    </row>
+    <row r="907">
+      <c r="I907" s="12"/>
+    </row>
+    <row r="908">
+      <c r="I908" s="12"/>
+    </row>
+    <row r="909">
+      <c r="I909" s="12"/>
+    </row>
+    <row r="910">
+      <c r="I910" s="12"/>
+    </row>
+    <row r="911">
+      <c r="I911" s="12"/>
+    </row>
+    <row r="912">
+      <c r="I912" s="12"/>
+    </row>
+    <row r="913">
+      <c r="I913" s="12"/>
+    </row>
+    <row r="914">
+      <c r="I914" s="12"/>
+    </row>
+    <row r="915">
+      <c r="I915" s="12"/>
+    </row>
+    <row r="916">
+      <c r="I916" s="12"/>
+    </row>
+    <row r="917">
+      <c r="I917" s="12"/>
+    </row>
+    <row r="918">
+      <c r="I918" s="12"/>
+    </row>
+    <row r="919">
+      <c r="I919" s="12"/>
+    </row>
+    <row r="920">
+      <c r="I920" s="12"/>
+    </row>
+    <row r="921">
+      <c r="I921" s="12"/>
+    </row>
+    <row r="922">
+      <c r="I922" s="12"/>
+    </row>
+    <row r="923">
+      <c r="I923" s="12"/>
+    </row>
+    <row r="924">
+      <c r="I924" s="12"/>
+    </row>
+    <row r="925">
+      <c r="I925" s="12"/>
+    </row>
+    <row r="926">
+      <c r="I926" s="12"/>
+    </row>
+    <row r="927">
+      <c r="I927" s="12"/>
+    </row>
+    <row r="928">
+      <c r="I928" s="12"/>
+    </row>
+    <row r="929">
+      <c r="I929" s="12"/>
+    </row>
+    <row r="930">
+      <c r="I930" s="12"/>
+    </row>
+    <row r="931">
+      <c r="I931" s="12"/>
+    </row>
+    <row r="932">
+      <c r="I932" s="12"/>
+    </row>
+    <row r="933">
+      <c r="I933" s="12"/>
+    </row>
+    <row r="934">
+      <c r="I934" s="12"/>
+    </row>
+    <row r="935">
+      <c r="I935" s="12"/>
+    </row>
+    <row r="936">
+      <c r="I936" s="12"/>
+    </row>
+    <row r="937">
+      <c r="I937" s="12"/>
+    </row>
+    <row r="938">
+      <c r="I938" s="12"/>
+    </row>
+    <row r="939">
+      <c r="I939" s="12"/>
+    </row>
+    <row r="940">
+      <c r="I940" s="12"/>
+    </row>
+    <row r="941">
+      <c r="I941" s="12"/>
+    </row>
+    <row r="942">
+      <c r="I942" s="12"/>
+    </row>
+    <row r="943">
+      <c r="I943" s="12"/>
+    </row>
+    <row r="944">
+      <c r="I944" s="12"/>
+    </row>
+    <row r="945">
+      <c r="I945" s="12"/>
+    </row>
+    <row r="946">
+      <c r="I946" s="12"/>
+    </row>
+    <row r="947">
+      <c r="I947" s="12"/>
+    </row>
+    <row r="948">
+      <c r="I948" s="12"/>
+    </row>
+    <row r="949">
+      <c r="I949" s="12"/>
+    </row>
+    <row r="950">
+      <c r="I950" s="12"/>
+    </row>
+    <row r="951">
+      <c r="I951" s="12"/>
+    </row>
+    <row r="952">
+      <c r="I952" s="12"/>
+    </row>
+    <row r="953">
+      <c r="I953" s="12"/>
+    </row>
+    <row r="954">
+      <c r="I954" s="12"/>
+    </row>
+    <row r="955">
+      <c r="I955" s="12"/>
+    </row>
+    <row r="956">
+      <c r="I956" s="12"/>
+    </row>
+    <row r="957">
+      <c r="I957" s="12"/>
+    </row>
+    <row r="958">
+      <c r="I958" s="12"/>
+    </row>
+    <row r="959">
+      <c r="I959" s="12"/>
+    </row>
+    <row r="960">
+      <c r="I960" s="12"/>
+    </row>
+    <row r="961">
+      <c r="I961" s="12"/>
+    </row>
+    <row r="962">
+      <c r="I962" s="12"/>
+    </row>
+    <row r="963">
+      <c r="I963" s="12"/>
+    </row>
+    <row r="964">
+      <c r="I964" s="12"/>
+    </row>
+    <row r="965">
+      <c r="I965" s="12"/>
+    </row>
+    <row r="966">
+      <c r="I966" s="12"/>
+    </row>
+    <row r="967">
+      <c r="I967" s="12"/>
+    </row>
+    <row r="968">
+      <c r="I968" s="12"/>
+    </row>
+    <row r="969">
+      <c r="I969" s="12"/>
+    </row>
+    <row r="970">
+      <c r="I970" s="12"/>
+    </row>
+    <row r="971">
+      <c r="I971" s="12"/>
+    </row>
+    <row r="972">
+      <c r="I972" s="12"/>
+    </row>
+    <row r="973">
+      <c r="I973" s="12"/>
+    </row>
+    <row r="974">
+      <c r="I974" s="12"/>
+    </row>
+    <row r="975">
+      <c r="I975" s="12"/>
+    </row>
+    <row r="976">
+      <c r="I976" s="12"/>
+    </row>
+    <row r="977">
+      <c r="I977" s="12"/>
+    </row>
+    <row r="978">
+      <c r="I978" s="12"/>
+    </row>
+    <row r="979">
+      <c r="I979" s="12"/>
+    </row>
+    <row r="980">
+      <c r="I980" s="12"/>
+    </row>
+    <row r="981">
+      <c r="I981" s="12"/>
+    </row>
+    <row r="982">
+      <c r="I982" s="12"/>
+    </row>
+    <row r="983">
+      <c r="I983" s="12"/>
+    </row>
+    <row r="984">
+      <c r="I984" s="12"/>
+    </row>
+    <row r="985">
+      <c r="I985" s="12"/>
+    </row>
+    <row r="986">
+      <c r="I986" s="12"/>
+    </row>
+    <row r="987">
+      <c r="I987" s="12"/>
+    </row>
+    <row r="988">
+      <c r="I988" s="12"/>
+    </row>
+    <row r="989">
+      <c r="I989" s="12"/>
+    </row>
+    <row r="990">
+      <c r="I990" s="12"/>
+    </row>
+    <row r="991">
+      <c r="I991" s="12"/>
+    </row>
+    <row r="992">
+      <c r="I992" s="12"/>
+    </row>
+    <row r="993">
+      <c r="I993" s="12"/>
+    </row>
+    <row r="994">
+      <c r="I994" s="12"/>
+    </row>
+    <row r="995">
+      <c r="I995" s="12"/>
+    </row>
+    <row r="996">
+      <c r="I996" s="12"/>
+    </row>
+    <row r="997">
+      <c r="I997" s="12"/>
+    </row>
+    <row r="998">
+      <c r="I998" s="12"/>
+    </row>
+    <row r="999">
+      <c r="I999" s="12"/>
+    </row>
+    <row r="1000">
+      <c r="I1000" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/VendorsInvoicePdfToExcel/TemplateVendorInvoices.xlsx
+++ b/VendorsInvoicePdfToExcel/TemplateVendorInvoices.xlsx
@@ -11,18 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Designer Information</t>
   </si>
   <si>
-    <t>Our Information</t>
+    <t>PSL Details</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Address</t>
@@ -530,9 +527,7 @@
       <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="K2" s="10"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -541,7 +536,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2"/>
@@ -552,7 +547,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="2"/>
@@ -563,7 +558,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="2"/>
@@ -574,7 +569,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="2"/>
@@ -585,7 +580,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="2"/>
@@ -596,7 +591,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="2"/>
@@ -607,7 +602,7 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="2"/>
@@ -618,7 +613,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="J6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="2"/>
@@ -629,7 +624,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="2"/>
@@ -640,7 +635,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="2"/>
@@ -651,7 +646,7 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
@@ -662,7 +657,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="2"/>
@@ -682,34 +677,34 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -717,7 +712,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
       <c r="P12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
@@ -745,15 +740,15 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="17"/>
@@ -769,22 +764,22 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>29</v>
+      <c r="L14" s="20" t="s">
+        <v>27</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="M14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="N14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14" s="19"/>
     </row>

--- a/VendorsInvoicePdfToExcel/TemplateVendorInvoices.xlsx
+++ b/VendorsInvoicePdfToExcel/TemplateVendorInvoices.xlsx
@@ -3743,36 +3743,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K2:P2"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="J12:O12"/>
     <mergeCell ref="P12:P14"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="J12:O12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
